--- a/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
+++ b/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\GERENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\UNI-GERENCIA\paq 2_06052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20724A99-5FB0-4DDF-A239-E399F26A88BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C931506C-D820-4341-AAEE-6B134CEBDE70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Paq2" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Paq4" sheetId="3" r:id="rId3"/>
     <sheet name="Paq5" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
   <si>
     <t>CURSO GERENCIA - PAQUETE 2 - CUADRO DE CONTROL</t>
   </si>
@@ -409,12 +408,15 @@
   </si>
   <si>
     <t>20_santiago</t>
+  </si>
+  <si>
+    <t>trabajando jorge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,6 +675,13 @@
     <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -987,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411A15B-E663-4A98-8B0A-129446752C81}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,12 +1013,12 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1038,7 +1047,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>2</v>
@@ -1057,7 +1066,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A23" si="0">A4+1</f>
         <v>3</v>
@@ -1076,7 +1085,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="45" t="s">
         <v>94</v>
@@ -1112,7 +1121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A6+1</f>
         <v>5</v>
@@ -1134,7 +1143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1156,7 +1165,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1182,7 +1191,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1210,7 +1219,7 @@
       </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1235,7 +1244,7 @@
       </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1260,31 +1269,36 @@
       </c>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="57">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1308,7 +1322,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1537,31 +1551,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{540C0FA5-568B-4C2D-8F53-1C4A1480A8AE}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{79BBD2CD-CCF0-44AE-A162-1A805814752A}"/>
-    <hyperlink ref="B5:B6" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js" xr:uid="{97DB81EF-0D43-4CF6-AB4C-2291645636E7}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{762120C6-7682-40E0-BC18-9E505D3940AD}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{26C1C6AF-22C0-4576-85E4-98EF52647F3C}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{7BD188EF-6F84-4EFD-A61C-D505FCBC0DCD}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{6A508B37-E77E-461D-8010-8207C33E1115}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{B529A475-3459-4704-85ED-06F394603820}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{4C80C1D1-878D-4B8F-8197-CB93C3F67B11}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{FB7F2382-C7B4-4CF0-A793-34741258E1B0}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{BAED3CF0-EC1B-4367-9DAC-94E5BF5149A1}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{86C8534D-226D-43D1-B71A-055FAAA681A6}"/>
-    <hyperlink ref="B17:B18" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js" xr:uid="{5725FA1C-8D33-4ABA-95E6-A0D6481EABB5}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{B72559EB-1811-49A2-9481-0B8EDA7142D1}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{A3C5683E-3A46-4264-AFC5-E604A70D525D}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{6101D0B8-28F0-4B27-A74E-F01B8321F96E}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{1D6D277B-FD91-4BB1-BB16-DB8FB2C923B7}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{9330F4E2-EB0C-477B-A52F-3C366BA51BBE}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5:B6" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17:B18" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41680259-ADF1-4F15-9CE8-EDFA6ECE01D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -2014,16 +2028,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{1DE775B5-265C-4885-A7F5-400C4B19A6A5}"/>
-    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html" xr:uid="{F4190EF2-DFA3-4AC5-B8F0-1DBDA8827C30}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{FA2D7427-E97C-4AE1-841F-4FE3FF0BFCB1}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{25F19FDF-7A7F-465F-A8F7-C7C00CA28E99}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{05C7375B-6A5A-46BA-90F6-5D4175A474FD}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{4B1F5275-9C24-477A-8BDC-7C34015EB733}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{B008555E-E4F8-4ACF-A2A6-67BEA38181EB}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{D3446EC6-4C05-4FCE-ABD4-E5FBF3C23C7B}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{440D2286-DD88-4C71-82AA-06369A12692D}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{1A74D98F-539C-4492-8A5B-D8E2F73B0DF1}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -2031,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D91BE4E-3A1C-426F-A067-4F7F0E99FE8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2237,12 +2251,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{E4EA3A59-C244-4217-ABB7-E7BECF617FB3}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{15984BDE-F8A3-4D9B-9090-E1F792C743AD}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{5F76AAB1-AB67-4826-8F19-E14C5CB67BFD}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{418DC436-E375-45E2-A52A-71562DD4B92C}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{2F3E0D61-5FE1-43FC-8DFA-6DDF414E696C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{7B75BB79-7A83-4FC6-855C-BC89BFAB025C}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -2250,7 +2264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4086E1-05B7-49A8-B572-C8FDFB3C12DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2385,9 +2399,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{7B8C60DA-F282-4A2B-9510-26E56F727510}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{B53BCE25-4B6E-4F6E-9CF7-76D06E6FD8F0}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{EDC9CC2E-5A9B-432B-898E-747CC652F10A}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>

--- a/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
+++ b/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\UNI-GERENCIA\paq 2_06052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FF74D-9051-4656-95BD-D09E4681452D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paq2" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Paq4" sheetId="3" r:id="rId3"/>
     <sheet name="Paq5" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="126">
   <si>
     <t>CURSO GERENCIA - PAQUETE 2 - CUADRO DE CONTROL</t>
   </si>
@@ -411,12 +412,15 @@
   </si>
   <si>
     <t>trabajando jorge</t>
+  </si>
+  <si>
+    <t>Este también para modificar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,11 +1000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1271,9 @@
       <c r="G13" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
@@ -1551,31 +1557,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5:B6" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17:B18" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5:B6" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17:B18" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -2028,16 +2034,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
-    <hyperlink ref="B15" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -2045,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2251,12 +2257,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -2264,7 +2270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2399,9 +2405,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>

--- a/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
+++ b/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\UNI-GERENCIA\paq 2_06052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FF74D-9051-4656-95BD-D09E4681452D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Paq2" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Paq4" sheetId="3" r:id="rId3"/>
     <sheet name="Paq5" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
   <si>
     <t>CURSO GERENCIA - PAQUETE 2 - CUADRO DE CONTROL</t>
   </si>
@@ -411,17 +410,32 @@
     <t>20_santiago</t>
   </si>
   <si>
-    <t>trabajando jorge</t>
-  </si>
-  <si>
     <t>Este también para modificar</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>Audio duplicado en el frame linea 6540 del js</t>
+  </si>
+  <si>
+    <t>ACCIONES</t>
+  </si>
+  <si>
+    <t>COREEGIDO</t>
+  </si>
+  <si>
+    <t>avatar montado uno sobre otro, correcicion de tiempo  en el js ug_diapo6_1.js</t>
+  </si>
+  <si>
+    <t>Audio duplicado en el frame linea 6541 del js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +470,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,9 +635,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,14 +703,35 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1000,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,65 +1061,56 @@
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A23" si="0">A4+1</f>
-        <v>3</v>
+        <f>A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1085,173 +1122,179 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
+        <f t="shared" ref="A6:A24" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="45" t="s">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>A6+1</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="H8" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f>A7+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="H9" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="52">
+      <c r="F10" s="18"/>
+      <c r="G10" s="51">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="I10" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F11" s="52">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="H11" s="25"/>
+      <c r="I11" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F12" s="52">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="53">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>31</v>
@@ -1263,325 +1306,379 @@
         <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="52">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F14" s="52">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="I14" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F15" s="52">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I15" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F16" s="62">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G16" s="63" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="I16" s="65"/>
+      <c r="J16" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F17" s="62">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F18" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" s="64" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="I18" s="65"/>
+      <c r="J18" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F19" s="62">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" s="64" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I19" s="65"/>
+      <c r="J19" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F20" s="62">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G20" s="63" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F21" s="62">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F22" s="50">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5:B6" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17:B18" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6:B7" r:id="rId3" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo3/ug_diapo3.js"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18:B19" r:id="rId13" display="http://localhost/www/Uni_Gerencia1/paq2/contents/resources/js/ug_diapo7/ug_diapo7.js"/>
+    <hyperlink ref="B20" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -1603,13 +1700,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1617,408 +1714,408 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -2034,16 +2131,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8:B9" r:id="rId2" display="http://localhost/www/Uni_Gerencia1/paq3/contents/tema2/UGPP1_4.html"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -2051,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2073,13 +2170,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2087,161 +2184,161 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -2257,12 +2354,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -2270,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2293,13 +2390,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2307,28 +2404,28 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C4" t="s">
@@ -2337,7 +2434,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G4" s="11"/>
@@ -2346,7 +2443,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>110</v>
       </c>
       <c r="C5" t="s">
@@ -2355,10 +2452,10 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="11"/>
@@ -2367,7 +2464,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
@@ -2376,7 +2473,7 @@
       <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="11"/>
@@ -2384,12 +2481,12 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -2405,9 +2502,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>

--- a/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
+++ b/paq 2_06052021/Gerencia_TODOS_Cuadro_Control1 (1).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>CURSO GERENCIA - PAQUETE 2 - CUADRO DE CONTROL</t>
   </si>
@@ -603,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -700,7 +697,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1049,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,15 +1057,15 @@
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1079,13 +1075,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1105,7 +1101,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1124,7 +1120,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1143,7 +1139,7 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1162,25 +1158,25 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="44" t="s">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="57"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1199,7 +1195,7 @@
       <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="17"/>
       <c r="H9" s="6" t="s">
         <v>122</v>
       </c>
@@ -1221,14 +1217,14 @@
       <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="51">
+      <c r="F10" s="17"/>
+      <c r="G10" s="49">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1249,17 +1245,17 @@
       <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="50">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1280,16 +1276,16 @@
       <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>120</v>
       </c>
       <c r="H12" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="58"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1308,13 +1304,13 @@
       <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="50">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="58"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1333,16 +1329,16 @@
       <c r="E14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="50">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1363,257 +1359,272 @@
       <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="50">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+    <row r="16" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="60">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="54" t="s">
+      <c r="I16" s="63"/>
+      <c r="J16" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59">
+      <c r="A17" s="57">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="60">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="54" t="s">
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+      <c r="A18" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="60">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="54" t="s">
+      <c r="I18" s="63"/>
+      <c r="J18" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
+      <c r="A19" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="60">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="54" t="s">
+      <c r="I19" s="63"/>
+      <c r="J19" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="A20" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="60">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="54" t="s">
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="59">
+      <c r="A21" s="57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="60">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="54" t="s">
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="60">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="61" t="s">
         <v>116</v>
       </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="52" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="52" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1700,13 +1711,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1714,7 +1725,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1726,130 +1737,130 @@
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
@@ -1857,7 +1868,7 @@
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -1869,8 +1880,8 @@
       <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
@@ -1878,7 +1889,7 @@
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1890,8 +1901,8 @@
       <c r="E11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
@@ -1899,20 +1910,20 @@
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
@@ -1920,39 +1931,39 @@
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
@@ -1960,64 +1971,64 @@
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2028,9 +2039,9 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -2039,7 +2050,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2050,7 +2061,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2061,7 +2072,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2072,7 +2083,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2083,7 +2094,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2170,13 +2181,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2184,7 +2195,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2205,13 +2216,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -2226,7 +2237,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2235,7 +2246,7 @@
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="15"/>
@@ -2244,19 +2255,19 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="15"/>
@@ -2265,17 +2276,17 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="15"/>
@@ -2287,7 +2298,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2306,7 +2317,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2390,13 +2401,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2404,7 +2415,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2425,7 +2436,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C4" t="s">
@@ -2443,7 +2454,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>110</v>
       </c>
       <c r="C5" t="s">
@@ -2464,7 +2475,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
